--- a/doc/测试用例.xlsx
+++ b/doc/测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\auditcenter_apitest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F8948-5CC6-4784-B598-029384CF0D60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4158CA75-6832-4DEC-9FAC-87B0CB51EA92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="304">
   <si>
     <r>
       <rPr>
@@ -22798,12 +22798,600 @@
     <t>门诊有效数据合并-按处方</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
+  <si>
+    <t>药品信息</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊有效数据合并-按患者</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不审，再同患者传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待审详情展示当前处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和其他合并处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审核打回，再同患者传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待审详情展示当前处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审核打回再重审通过，再同患者传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待审详情展示当前处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和其他合并处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审核打回（可双签）再重审通过，再同患者传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待审详情展示当前处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和其他合并处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审核打回（可双签）且医生未处理，再同患者传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待审详情展示当前处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审核打回（可双签）且医生修改，再同患者传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待审详情展示当前处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和其他合并处方修改后的处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审核打回（可双签）且医生双签，再同患者传入处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待审详情展示当前处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和其他合并处方处方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入处方1不审且不锁定，作废处方1，再同患者传入处方2，则处方2待审详情展示当前处方处方2
+传入处方1不审且锁定，作废处方1，再同患者传入处方2，则处方2待审详情展示当前处方处方2
+传入处方1且审核，作废处方1，再同患者传入处方2，则处方2待审详情展示当前处方处方2</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一xml传入处方1和处方2，作废处方1，再同患者传入处方3，则处方3任务待审详情</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -23048,6 +23636,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -23271,7 +23871,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -23610,37 +24210,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -23667,6 +24236,37 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -23687,6 +24287,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -23725,18 +24337,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -23751,6 +24351,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -23779,18 +24391,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -23799,6 +24399,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -25182,35 +25790,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="118"/>
+      <c r="E1" s="107"/>
       <c r="F1" s="89" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="90"/>
     </row>
     <row r="3" spans="1:256" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:256" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="91"/>
@@ -25237,14 +25845,14 @@
       </c>
     </row>
     <row r="6" spans="1:256" s="84" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
     </row>
     <row r="7" spans="1:256" s="84" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
@@ -25254,9 +25862,9 @@
       <c r="C7" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
     </row>
     <row r="8" spans="1:256" s="84" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="97" t="s">
@@ -25268,11 +25876,11 @@
       <c r="C8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
     </row>
     <row r="9" spans="1:256" s="84" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="97" t="s">
@@ -25284,9 +25892,9 @@
       <c r="C9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="104"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
     </row>
     <row r="10" spans="1:256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="94"/>
@@ -25547,14 +26155,14 @@
       <c r="IV10" s="94"/>
     </row>
     <row r="11" spans="1:256" s="85" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
     </row>
     <row r="12" spans="1:256" s="86" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="97" t="s">
@@ -25563,14 +26171,14 @@
       <c r="B12" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="112" t="s">
+      <c r="D12" s="118"/>
+      <c r="E12" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="113"/>
+      <c r="F12" s="118"/>
       <c r="G12" s="99"/>
       <c r="H12" s="99"/>
       <c r="I12" s="99"/>
@@ -25597,82 +26205,65 @@
       <c r="B13" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="107" t="s">
+      <c r="D13" s="116"/>
+      <c r="E13" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="106"/>
+      <c r="F13" s="120"/>
     </row>
     <row r="14" spans="1:256" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="120"/>
     </row>
     <row r="15" spans="1:256" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="102"/>
       <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="120"/>
     </row>
     <row r="16" spans="1:256" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="102"/>
       <c r="B16" s="102"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="120"/>
     </row>
     <row r="17" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102"/>
       <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="106"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="120"/>
     </row>
     <row r="18" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102"/>
       <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="106"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="120"/>
     </row>
     <row r="19" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102"/>
       <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="106"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="C16:D16"/>
@@ -25681,6 +26272,23 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <dataValidations count="2">
@@ -25945,8 +26553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26192,13 +26800,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="78"/>
       <c r="F19" s="1" t="s">
         <v>72</v>
@@ -26244,28 +26852,38 @@
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
-      <c r="D24" s="51"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="78"/>
     </row>
     <row r="25" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="51"/>
+      <c r="B25" s="164" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="164" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" s="165" t="s">
+        <v>301</v>
+      </c>
       <c r="E25" s="78"/>
     </row>
-    <row r="26" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="51"/>
+      <c r="D26" s="164" t="s">
+        <v>302</v>
+      </c>
       <c r="E26" s="78"/>
     </row>
-    <row r="27" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
-      <c r="D27" s="51"/>
+      <c r="D27" s="164" t="s">
+        <v>303</v>
+      </c>
       <c r="E27" s="78"/>
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -26304,6 +26922,7 @@
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26326,12 +26945,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26353,7 +26972,7 @@
     </row>
     <row r="3" spans="1:6" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="54"/>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="137" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -26369,43 +26988,43 @@
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="54"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="133" t="s">
+      <c r="B4" s="138"/>
+      <c r="C4" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="139"/>
+      <c r="E4" s="129"/>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="54"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="140"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="130"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134" t="s">
+      <c r="B6" s="138"/>
+      <c r="C6" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="139"/>
+      <c r="E6" s="129"/>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="54"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="140"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="54"/>
-      <c r="B8" s="134"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="59" t="s">
         <v>86</v>
       </c>
@@ -26416,7 +27035,7 @@
     </row>
     <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="54"/>
-      <c r="B9" s="134"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="59" t="s">
         <v>88</v>
       </c>
@@ -26427,7 +27046,7 @@
     </row>
     <row r="10" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="54"/>
-      <c r="B10" s="135"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="59" t="s">
         <v>90</v>
       </c>
@@ -26438,7 +27057,7 @@
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="137" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -26450,30 +27069,30 @@
       <c r="E11" s="63"/>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="133" t="s">
+      <c r="B12" s="138"/>
+      <c r="C12" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="136" t="s">
+      <c r="D12" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="141"/>
+      <c r="E12" s="131"/>
       <c r="F12" s="64"/>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="132"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="142"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="132"/>
-      <c r="B14" s="134"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="59" t="s">
         <v>39</v>
       </c>
@@ -26484,8 +27103,8 @@
       <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="66" t="s">
         <v>41</v>
       </c>
@@ -26495,8 +27114,8 @@
       <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="135"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="66" t="s">
         <v>42</v>
       </c>
@@ -26506,8 +27125,8 @@
       <c r="E16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="132"/>
-      <c r="B17" s="133" t="s">
+      <c r="A17" s="136"/>
+      <c r="B17" s="137" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="66" t="s">
@@ -26520,8 +27139,8 @@
       <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="132"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="54" t="s">
         <v>101</v>
       </c>
@@ -26531,8 +27150,8 @@
       <c r="E18" s="57"/>
     </row>
     <row r="19" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="132"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="138"/>
       <c r="C19" s="68" t="s">
         <v>103</v>
       </c>
@@ -26542,33 +27161,33 @@
       <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="132"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="138" t="s">
+      <c r="D20" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="139"/>
+      <c r="E20" s="129"/>
     </row>
     <row r="21" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="132"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="140"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="130"/>
     </row>
     <row r="22" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="132"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="137"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="141"/>
       <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="132"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="138"/>
       <c r="C23" s="59" t="s">
         <v>107</v>
       </c>
@@ -26578,8 +27197,8 @@
       <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="132"/>
-      <c r="B24" s="132" t="s">
+      <c r="A24" s="136"/>
+      <c r="B24" s="136" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="52" t="s">
@@ -26591,8 +27210,8 @@
       <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="132"/>
-      <c r="B25" s="132"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="52" t="s">
         <v>112</v>
       </c>
@@ -26602,8 +27221,8 @@
       <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="52" t="s">
         <v>114</v>
       </c>
@@ -26613,8 +27232,8 @@
       <c r="E26" s="57"/>
     </row>
     <row r="27" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
-      <c r="B27" s="132" t="s">
+      <c r="A27" s="136"/>
+      <c r="B27" s="136" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="52" t="s">
@@ -26626,8 +27245,8 @@
       <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
-      <c r="B28" s="132"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="52" t="s">
         <v>118</v>
       </c>
@@ -26637,8 +27256,8 @@
       <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
-      <c r="B29" s="132"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="52" t="s">
         <v>120</v>
       </c>
@@ -26681,6 +27300,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E12:E13"/>
@@ -26697,9 +27319,6 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D20:D22"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <hyperlinks>
@@ -42685,46 +43304,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="158"/>
+      <c r="B1" s="149"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="154" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="160"/>
-      <c r="B3" s="151"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="155"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="154" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="149"/>
-      <c r="B5" s="151"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="155"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="152" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="156" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="149"/>
-      <c r="B7" s="151"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="155"/>
     </row>
     <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -42753,104 +43372,104 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="156" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="149"/>
-      <c r="B13" s="151"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="155"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="152" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="156" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="154"/>
-      <c r="B15" s="153"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="157"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="154"/>
-      <c r="B16" s="153"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="157"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="154"/>
-      <c r="B17" s="153"/>
+      <c r="A17" s="158"/>
+      <c r="B17" s="157"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="154"/>
-      <c r="B18" s="153"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="157"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="149"/>
-      <c r="B19" s="151"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="155"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="152" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="156" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="149"/>
-      <c r="B21" s="151"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="155"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="159" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="156" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="156"/>
-      <c r="B23" s="151"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="155"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="148" t="s">
+      <c r="A24" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="156" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="149"/>
-      <c r="B25" s="151"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="155"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="159" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="152" t="s">
+      <c r="B26" s="156" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="156"/>
-      <c r="B27" s="151"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="155"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="152" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="152" t="s">
+      <c r="B28" s="156" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="149"/>
-      <c r="B29" s="151"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="155"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
@@ -42878,11 +43497,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -42899,6 +43513,11 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -44339,6 +44958,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010033EEC36A0D95F94CAA0553F64E5DEB40" ma:contentTypeVersion="0" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="297792c5ab191e558f1c3de1ab992488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b51e50da1bca0add1c6bbfbefcbaaafa">
     <xsd:element name="properties">
@@ -44387,23 +45021,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292AFBA5-B1C3-47E7-BE08-FC3ADEC156E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109CA4A7-E7E5-421C-A35A-7084D41EBDB8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -44415,7 +45034,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109CA4A7-E7E5-421C-A35A-7084D41EBDB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292AFBA5-B1C3-47E7-BE08-FC3ADEC156E0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>